--- a/Working code/log_testing.xlsx
+++ b/Working code/log_testing.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1822,6 +1822,101 @@
       </c>
       <c r="E73" t="n">
         <v>90.66666666666666</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-02-22 16:39:19</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C74" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D74" t="n">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="E74" t="n">
+        <v>94.66666666666667</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-02-22 16:39:59</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C75" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D75" t="n">
+        <v>46</v>
+      </c>
+      <c r="E75" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-02-22 16:40:24</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="C76" t="n">
+        <v>87.65432098765432</v>
+      </c>
+      <c r="D76" t="n">
+        <v>94.66666666666667</v>
+      </c>
+      <c r="E76" t="n">
+        <v>94.66666666666667</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-02-22 16:41:32</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>44.85596707818929</v>
+      </c>
+      <c r="C77" t="n">
+        <v>59.25925925925925</v>
+      </c>
+      <c r="D77" t="n">
+        <v>40.66666666666666</v>
+      </c>
+      <c r="E77" t="n">
+        <v>68.66666666666667</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-02-22 16:42:16</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C78" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D78" t="n">
+        <v>28.66666666666666</v>
+      </c>
+      <c r="E78" t="n">
+        <v>54.66666666666666</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log_testing.xlsx
+++ b/Working code/log_testing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -1917,6 +1917,101 @@
       </c>
       <c r="E78" t="n">
         <v>54.66666666666666</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:41</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C79" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D79" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E79" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:54:55</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="C80" t="n">
+        <v>97.53086419753086</v>
+      </c>
+      <c r="D80" t="n">
+        <v>96.66666666666667</v>
+      </c>
+      <c r="E80" t="n">
+        <v>96.66666666666667</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:22</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>41.35802469135803</v>
+      </c>
+      <c r="C81" t="n">
+        <v>82.71604938271605</v>
+      </c>
+      <c r="D81" t="n">
+        <v>46.22222222222223</v>
+      </c>
+      <c r="E81" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:55:41</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C82" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D82" t="n">
+        <v>46</v>
+      </c>
+      <c r="E82" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-03-02 15:56:12</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C83" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D83" t="n">
+        <v>29.86666666666667</v>
+      </c>
+      <c r="E83" t="n">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Working code/log_testing.xlsx
+++ b/Working code/log_testing.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -2012,6 +2012,120 @@
       </c>
       <c r="E83" t="n">
         <v>90</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:07</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>96.29629629629629</v>
+      </c>
+      <c r="C84" t="n">
+        <v>96.29629629629629</v>
+      </c>
+      <c r="D84" t="n">
+        <v>33.61904761904762</v>
+      </c>
+      <c r="E84" t="n">
+        <v>73.33333333333333</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:28:52</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>57.4074074074074</v>
+      </c>
+      <c r="C85" t="n">
+        <v>80.24691358024691</v>
+      </c>
+      <c r="D85" t="n">
+        <v>35.83333333333334</v>
+      </c>
+      <c r="E85" t="n">
+        <v>82.66666666666667</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:29:27</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="C86" t="n">
+        <v>93.82716049382715</v>
+      </c>
+      <c r="D86" t="n">
+        <v>38.53333333333333</v>
+      </c>
+      <c r="E86" t="n">
+        <v>58.66666666666666</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:01</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="C87" t="n">
+        <v>95.06172839506173</v>
+      </c>
+      <c r="D87" t="n">
+        <v>36.8</v>
+      </c>
+      <c r="E87" t="n">
+        <v>66.66666666666666</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:30:34</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="C88" t="n">
+        <v>98.76543209876543</v>
+      </c>
+      <c r="D88" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="E88" t="n">
+        <v>90.66666666666666</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-03-02 16:31:00</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>79.62962962962963</v>
+      </c>
+      <c r="C89" t="n">
+        <v>81.48148148148148</v>
+      </c>
+      <c r="D89" t="n">
+        <v>36.44444444444444</v>
+      </c>
+      <c r="E89" t="n">
+        <v>84.66666666666667</v>
       </c>
     </row>
   </sheetData>
